--- a/unit9-integer optimization/Gerrymandering.xlsx
+++ b/unit9-integer optimization/Gerrymandering.xlsx
@@ -1,15 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$42:$E$74</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$42:$E$74</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$C$75:$E$75</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$C$82:$C$84</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$C$85:$C$86</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$C$88:$C$90</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$C$92:$C$94</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$F$42:$F$74</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$77</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">二进制</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$E$82:$E$84</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$E$85:$E$86</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$E$88:$E$90</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Sheet1!$E$92:$E$94</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Gerrymandering New Mexico</t>
   </si>
@@ -48,120 +98,211 @@
     <t>Scenario 1</t>
   </si>
   <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Bernalillo</t>
+  </si>
+  <si>
+    <t>Catron</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Cibola</t>
+  </si>
+  <si>
+    <t>Colfax</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>DeBaca</t>
+  </si>
+  <si>
+    <t>Dona Ana</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Los Alamos</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>Quay</t>
+  </si>
+  <si>
+    <t>Rio Arriba</t>
+  </si>
+  <si>
+    <t>Roosevelt</t>
+  </si>
+  <si>
+    <t>Sandoval</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Socorro</t>
+  </si>
+  <si>
+    <t>Taos</t>
+  </si>
+  <si>
+    <t>Torrance</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision variables</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t># of district belong to</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t># of contry district contain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>still wins districts 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>still wins districts 3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LHS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># of contry districts contain </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t># of district a county assigned to</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>still wins districts 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>country 27 or 8 in district 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>country 29&amp;31 in same district</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
-    <t>Bernalillo</t>
-  </si>
-  <si>
-    <t>Catron</t>
-  </si>
-  <si>
-    <t>Chaves</t>
-  </si>
-  <si>
-    <t>Cibola</t>
-  </si>
-  <si>
-    <t>Colfax</t>
-  </si>
-  <si>
-    <t>Curry</t>
-  </si>
-  <si>
-    <t>DeBaca</t>
-  </si>
-  <si>
-    <t>Dona Ana</t>
-  </si>
-  <si>
-    <t>Eddy</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Guadalupe</t>
-  </si>
-  <si>
-    <t>Harding</t>
-  </si>
-  <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
-    <t>Lea</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Los Alamos</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>McKinley</t>
-  </si>
-  <si>
-    <t>Mora</t>
-  </si>
-  <si>
-    <t>Otero</t>
-  </si>
-  <si>
-    <t>Quay</t>
-  </si>
-  <si>
-    <t>Rio Arriba</t>
-  </si>
-  <si>
-    <t>Roosevelt</t>
-  </si>
-  <si>
-    <t>Sandoval</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>San Miguel</t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>Socorro</t>
-  </si>
-  <si>
-    <t>Taos</t>
-  </si>
-  <si>
-    <t>Torrance</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Valencia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wins district 3 in Scenario 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wins district 2 in Scenario 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wins district 1 in Scenario 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wins district 1 in Scenario 3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wins district 2 in Scenario 3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wins district 3 in Scenario 3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,34 +310,72 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -336,11 +515,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -390,6 +610,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,15 +622,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -733,23 +994,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -761,7 +1024,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -772,22 +1035,22 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1">
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,19 +1070,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -837,12 +1100,12 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="11">
@@ -860,12 +1123,12 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="11">
@@ -883,12 +1146,12 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="11">
@@ -906,12 +1169,12 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
@@ -929,12 +1192,12 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="11"/>
@@ -952,12 +1215,12 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="11">
@@ -975,12 +1238,12 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="11">
@@ -998,12 +1261,12 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="11">
@@ -1021,12 +1284,12 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11">
@@ -1044,12 +1307,12 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11">
@@ -1067,12 +1330,12 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11"/>
@@ -1090,12 +1353,12 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="11">
@@ -1113,12 +1376,12 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="11">
@@ -1136,12 +1399,12 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="11">
@@ -1159,12 +1422,12 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="11"/>
@@ -1182,12 +1445,12 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="11">
@@ -1205,12 +1468,12 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="11"/>
@@ -1228,12 +1491,12 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="11"/>
@@ -1251,12 +1514,12 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="11">
@@ -1274,12 +1537,12 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>21</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="11"/>
@@ -1297,12 +1560,12 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="11"/>
@@ -1320,12 +1583,12 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>23</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="11">
@@ -1343,12 +1606,12 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>24</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="11"/>
@@ -1366,12 +1629,12 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>25</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="11"/>
@@ -1389,12 +1652,12 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>26</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="11"/>
@@ -1412,12 +1675,12 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>27</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="11"/>
@@ -1435,12 +1698,12 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>28</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="11">
@@ -1458,12 +1721,12 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>29</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="11">
@@ -1481,12 +1744,12 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="11"/>
@@ -1504,12 +1767,12 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>31</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="9">
         <v>1</v>
@@ -1527,12 +1790,12 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>32</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="11"/>
@@ -1550,12 +1813,12 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="16" thickBot="1">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>33</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="15">
@@ -1573,7 +1836,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1584,7 +1847,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1595,9 +1858,11 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="21"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1606,11 +1871,1081 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
+    <row r="41" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0</v>
+      </c>
+      <c r="F42" s="26">
+        <f>SUM(C42:E42)</f>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>SUMPRODUCT(C42:E42,C5:E5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>2</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1</v>
+      </c>
+      <c r="E43" s="23">
+        <v>0</v>
+      </c>
+      <c r="F43" s="26">
+        <f t="shared" ref="F43:F74" si="0">SUM(C43:E43)</f>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G74" si="1">SUMPRODUCT(C43:E43,C6:E6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23">
+        <v>1</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0</v>
+      </c>
+      <c r="F44" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>4</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0</v>
+      </c>
+      <c r="F45" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>5</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <v>1</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>6</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="23">
+        <v>0</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <v>1</v>
+      </c>
+      <c r="F47" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>7</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="23">
+        <v>0</v>
+      </c>
+      <c r="D48" s="23">
+        <v>1</v>
+      </c>
+      <c r="E48" s="23">
+        <v>0</v>
+      </c>
+      <c r="F48" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>8</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="23">
+        <v>0</v>
+      </c>
+      <c r="D49" s="23">
+        <v>0</v>
+      </c>
+      <c r="E49" s="23">
+        <v>1</v>
+      </c>
+      <c r="F49" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>9</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0</v>
+      </c>
+      <c r="F50" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>10</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0</v>
+      </c>
+      <c r="D51" s="23">
+        <v>1</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>11</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0</v>
+      </c>
+      <c r="D52" s="23">
+        <v>1</v>
+      </c>
+      <c r="E52" s="23">
+        <v>0</v>
+      </c>
+      <c r="F52" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>12</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="23">
+        <v>0</v>
+      </c>
+      <c r="D53" s="23">
+        <v>0</v>
+      </c>
+      <c r="E53" s="23">
+        <v>1</v>
+      </c>
+      <c r="F53" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A54" s="9">
+        <v>13</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0</v>
+      </c>
+      <c r="D54" s="23">
+        <v>1</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0</v>
+      </c>
+      <c r="F54" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>14</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0</v>
+      </c>
+      <c r="D55" s="23">
+        <v>1</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0</v>
+      </c>
+      <c r="F55" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A56" s="9">
+        <v>15</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="23">
+        <v>0</v>
+      </c>
+      <c r="D56" s="23">
+        <v>1</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0</v>
+      </c>
+      <c r="F56" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A57" s="9">
+        <v>16</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0</v>
+      </c>
+      <c r="D57" s="23">
+        <v>0</v>
+      </c>
+      <c r="E57" s="23">
+        <v>1</v>
+      </c>
+      <c r="F57" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A58" s="9">
+        <v>17</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0</v>
+      </c>
+      <c r="D58" s="23">
+        <v>1</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0</v>
+      </c>
+      <c r="F58" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f>SUMPRODUCT(C58:E58,C21:E21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="9">
+        <v>18</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="23">
+        <v>0</v>
+      </c>
+      <c r="D59" s="23">
+        <v>0</v>
+      </c>
+      <c r="E59" s="23">
+        <v>1</v>
+      </c>
+      <c r="F59" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A60" s="9">
+        <v>19</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="23">
+        <v>0</v>
+      </c>
+      <c r="D60" s="23">
+        <v>0</v>
+      </c>
+      <c r="E60" s="23">
+        <v>1</v>
+      </c>
+      <c r="F60" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A61" s="9">
+        <v>20</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0</v>
+      </c>
+      <c r="D61" s="23">
+        <v>1</v>
+      </c>
+      <c r="E61" s="23">
+        <v>0</v>
+      </c>
+      <c r="F61" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A62" s="9">
+        <v>21</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="23">
+        <v>0</v>
+      </c>
+      <c r="D62" s="23">
+        <v>0</v>
+      </c>
+      <c r="E62" s="23">
+        <v>1</v>
+      </c>
+      <c r="F62" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A63" s="9">
+        <v>22</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="23">
+        <v>0</v>
+      </c>
+      <c r="D63" s="23">
+        <v>1</v>
+      </c>
+      <c r="E63" s="23">
+        <v>0</v>
+      </c>
+      <c r="F63" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A64" s="9">
+        <v>23</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="23">
+        <v>0</v>
+      </c>
+      <c r="D64" s="23">
+        <v>1</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0</v>
+      </c>
+      <c r="F64" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A65" s="9">
+        <v>24</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="23">
+        <v>0</v>
+      </c>
+      <c r="D65" s="23">
+        <v>0</v>
+      </c>
+      <c r="E65" s="23">
+        <v>1</v>
+      </c>
+      <c r="F65" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A66" s="9">
+        <v>25</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="23">
+        <v>0</v>
+      </c>
+      <c r="D66" s="23">
+        <v>0</v>
+      </c>
+      <c r="E66" s="23">
+        <v>1</v>
+      </c>
+      <c r="F66" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A67" s="9">
+        <v>26</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="23">
+        <v>0</v>
+      </c>
+      <c r="D67" s="23">
+        <v>0</v>
+      </c>
+      <c r="E67" s="23">
+        <v>1</v>
+      </c>
+      <c r="F67" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A68" s="9">
+        <v>27</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="23">
+        <v>0</v>
+      </c>
+      <c r="D68" s="23">
+        <v>1</v>
+      </c>
+      <c r="E68" s="23">
+        <v>0</v>
+      </c>
+      <c r="F68" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A69" s="9">
+        <v>28</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="23">
+        <v>0</v>
+      </c>
+      <c r="D69" s="23">
+        <v>1</v>
+      </c>
+      <c r="E69" s="23">
+        <v>0</v>
+      </c>
+      <c r="F69" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A70" s="9">
+        <v>29</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="23">
+        <v>1</v>
+      </c>
+      <c r="D70" s="23">
+        <v>0</v>
+      </c>
+      <c r="E70" s="23">
+        <v>0</v>
+      </c>
+      <c r="F70" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A71" s="9">
+        <v>30</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="23">
+        <v>0</v>
+      </c>
+      <c r="D71" s="23">
+        <v>0</v>
+      </c>
+      <c r="E71" s="23">
+        <v>1</v>
+      </c>
+      <c r="F71" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A72" s="9">
+        <v>31</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="23">
+        <v>1</v>
+      </c>
+      <c r="D72" s="23">
+        <v>0</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0</v>
+      </c>
+      <c r="F72" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f>SUMPRODUCT(C72:E72,C35:E35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A73" s="9">
+        <v>32</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="23">
+        <v>0</v>
+      </c>
+      <c r="D73" s="23">
+        <v>0</v>
+      </c>
+      <c r="E73" s="23">
+        <v>1</v>
+      </c>
+      <c r="F73" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>33</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="28">
+        <v>0</v>
+      </c>
+      <c r="D74" s="28">
+        <v>1</v>
+      </c>
+      <c r="E74" s="28">
+        <v>0</v>
+      </c>
+      <c r="F74" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B75" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="30">
+        <f>SUM(C42:C74)</f>
+        <v>3</v>
+      </c>
+      <c r="D75" s="30">
+        <f t="shared" ref="D75:E75" si="2">SUM(D42:D74)</f>
+        <v>17</v>
+      </c>
+      <c r="E75" s="30">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="32">
+        <f>SUMPRODUCT(C42:E74,C5:E37)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="33"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="30">
+        <f>SUMPRODUCT(C42:C74,F5:F37)</f>
+        <v>43119</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="30">
+        <f>SUMPRODUCT(E42:E74,F5:F37)</f>
+        <v>20007</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="30">
+        <f>SUMPRODUCT(D42:D74,F5:F37)</f>
+        <v>13271</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="30">
+        <f>D49+D68</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="30">
+        <f>C70+2*D70+3*E70</f>
+        <v>1</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="30">
+        <f>C72+2*D72+3*E72</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="30">
+        <f>SUMPRODUCT(C42:C74,G5:G37)</f>
+        <v>42922</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="30">
+        <f>SUMPRODUCT(D42:D74,G5:G37)</f>
+        <v>15096</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="30">
+        <f>SUMPRODUCT(E42:E74,G5:G37)</f>
+        <v>18054</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="30">
+        <f>SUMPRODUCT(C42:C74,H5:H37)</f>
+        <v>12095</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" s="30">
+        <f>SUMPRODUCT(D42:D74,H5:H37)</f>
+        <v>29723</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E93" s="30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="30">
+        <f>SUMPRODUCT(E42:E74,H5:H37)</f>
+        <v>22110</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="30">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
